--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_22_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>741828.4754178768</v>
+        <v>817164.4107271892</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6110993.067254424</v>
+        <v>6110993.067254425</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>28.93420885558032</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>201.6622187863186</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247644</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.67709528776616</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612781</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>323.9708417730891</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1038,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>20.95866062610926</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>87.93270968653144</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>23.79925355567458</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>197.5928350623171</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>94.57983363107971</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>221.7048515690722</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>103.6446362310498</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>309.3243152307506</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.5522128412692</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>6.944023270396492</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>242.8528437613046</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>229.7965692041365</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541850957</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>135.4126709451608</v>
       </c>
       <c r="H16" t="n">
-        <v>17.78945719061446</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>168.1158122680975</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>42.6455999594027</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>234.2900106523817</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.95866062610927</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>248.2949166645732</v>
+        <v>188.2196394312111</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>80.77366170817018</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20.95866062610927</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2327,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>308.9203564757127</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951709</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>148.4348925031067</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>87.62154955555292</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>137.9375902425436</v>
+        <v>135.4126709451603</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>79.03187764303514</v>
       </c>
       <c r="H29" t="n">
-        <v>246.7053196171292</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20.95866062610927</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>106.5360147857914</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>37.28745735111544</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>229.7965692041383</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>21.13871586091602</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>81.46084344268542</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3275,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>229.796569204138</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>129.6194020613868</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.52918235370612</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,10 +3438,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>20.75019519330566</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3509,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H38" t="n">
-        <v>180.7169940972981</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>36.80019004113345</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>221.7048515690723</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>117.5087733332498</v>
+        <v>188.219639431212</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>167.180359447844</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,19 +3982,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>150.7480622481085</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4031,13 +4033,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>26.30878201733263</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4068,7 +4070,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657079</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
         <v>89.59687541851115</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>139.9236777330946</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>87.62154955555303</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4331,7 +4333,7 @@
         <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,7 +4348,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4355,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.60582160917</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879448</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600379</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>420.1857186477022</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>272.2726250653091</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
         <v>66.5121164321834</v>
@@ -4486,52 +4488,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1278.358723975039</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C5" t="n">
-        <v>1278.358723975039</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810557</v>
@@ -4583,10 +4585,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2428.563654276052</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2428.563654276052</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2055.097896014972</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1664.958564039161</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4643,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,28 +4664,28 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.68248070098065</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>87.68248070098065</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>87.68248070098065</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>87.68248070098065</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>87.68248070098065</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>832.0660869429007</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438281</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V7" t="n">
-        <v>377.0996507379413</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="W7" t="n">
-        <v>87.68248070098065</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X7" t="n">
-        <v>87.68248070098065</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>87.68248070098065</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1571.829289912211</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2731.767278738087</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1958.429129976333</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>696.9427113039706</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>468.9531604059532</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1238.038871968309</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C11" t="n">
-        <v>1133.347320219774</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D11" t="n">
-        <v>775.0816216130238</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>775.0816216130238</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5072,19 +5074,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883008</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
         <v>2741.012457539437</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.243802269323</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X11" t="n">
-        <v>2014.778044008243</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y11" t="n">
-        <v>1624.638712032431</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>518.4459618444151</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C13" t="n">
-        <v>349.5097789165083</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D13" t="n">
-        <v>199.3931395041725</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E13" t="n">
-        <v>199.3931395041725</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>199.3931395041725</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>199.3931395041725</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372933</v>
@@ -5206,43 +5208,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W13" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X13" t="n">
-        <v>920.887005818185</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y13" t="n">
-        <v>700.0944266746549</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1590.514489367197</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C14" t="n">
-        <v>1221.551972426786</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D14" t="n">
-        <v>863.2862738200351</v>
+        <v>1448.172675760996</v>
       </c>
       <c r="E14" t="n">
-        <v>477.498021221791</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218339</v>
+        <v>651.398518373144</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>3093.488074938325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2740.71941966821</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X14" t="n">
-        <v>2367.25366140713</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y14" t="n">
-        <v>1977.114329431319</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387288</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927764</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,37 +5372,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>518.4459618444143</v>
+        <v>518.4459618444151</v>
       </c>
       <c r="C16" t="n">
-        <v>349.5097789165075</v>
+        <v>349.5097789165083</v>
       </c>
       <c r="D16" t="n">
-        <v>349.5097789165075</v>
+        <v>349.5097789165083</v>
       </c>
       <c r="E16" t="n">
-        <v>349.5097789165075</v>
+        <v>349.5097789165083</v>
       </c>
       <c r="F16" t="n">
-        <v>349.5097789165075</v>
+        <v>349.5097789165083</v>
       </c>
       <c r="G16" t="n">
-        <v>181.8069422912264</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y16" t="n">
-        <v>700.0944266746541</v>
+        <v>700.0944266746549</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760996</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>651.398518373144</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>236.3260682181405</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3282.529458013814</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3028.99898128765</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.936093944079</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2345.167438673965</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X17" t="n">
-        <v>2345.167438673965</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y17" t="n">
-        <v>2345.167438673965</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.5121164321834</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U19" t="n">
-        <v>631.7841389438281</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V19" t="n">
-        <v>377.0996507379413</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="W19" t="n">
-        <v>87.68248070098065</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="X19" t="n">
-        <v>87.68248070098065</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.5121164321834</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1822.632236038042</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C20" t="n">
         <v>1453.669719097631</v>
       </c>
       <c r="D20" t="n">
-        <v>1453.669719097631</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E20" t="n">
-        <v>1067.881466499387</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F20" t="n">
-        <v>656.895561709779</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5768,25 +5770,25 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
         <v>2972.837166339056</v>
@@ -5795,7 +5797,7 @@
         <v>2599.371408077976</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102164</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="21">
@@ -5820,28 +5822,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.5121164321834</v>
+        <v>3143.957356778931</v>
       </c>
       <c r="C22" t="n">
-        <v>66.5121164321834</v>
+        <v>3143.957356778931</v>
       </c>
       <c r="D22" t="n">
-        <v>66.5121164321834</v>
+        <v>2993.840717366595</v>
       </c>
       <c r="E22" t="n">
-        <v>66.5121164321834</v>
+        <v>2845.927623784202</v>
       </c>
       <c r="F22" t="n">
-        <v>66.5121164321834</v>
+        <v>2699.037676286292</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>2617.448119005312</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962283</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596504</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588481</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886956</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068853</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596438</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181845</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U22" t="n">
-        <v>631.7841389438281</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V22" t="n">
-        <v>377.0996507379413</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W22" t="n">
-        <v>87.68248070098065</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X22" t="n">
-        <v>66.5121164321834</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.5121164321834</v>
+        <v>3325.605821609171</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.569348694471</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.60683175406</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D23" t="n">
-        <v>764.3411331473092</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E23" t="n">
-        <v>378.5528805490649</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218339</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>2994.542934265599</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W23" t="n">
-        <v>2641.774278995485</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.308520734405</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.169188758593</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6062,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596504</v>
@@ -6172,25 +6174,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S25" t="n">
-        <v>770.9527709665616</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T25" t="n">
-        <v>549.1861555360877</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U25" t="n">
-        <v>549.1861555360877</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V25" t="n">
-        <v>294.5016673302007</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W25" t="n">
-        <v>294.5016673302007</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6226,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6236,7 +6238,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939507</v>
@@ -6321,7 +6323,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2876.823691567623</v>
+        <v>518.4459618444147</v>
       </c>
       <c r="C28" t="n">
-        <v>2707.887508639716</v>
+        <v>349.5097789165078</v>
       </c>
       <c r="D28" t="n">
-        <v>2707.887508639716</v>
+        <v>349.5097789165078</v>
       </c>
       <c r="E28" t="n">
-        <v>2707.887508639716</v>
+        <v>349.5097789165078</v>
       </c>
       <c r="F28" t="n">
-        <v>2707.887508639716</v>
+        <v>349.5097789165078</v>
       </c>
       <c r="G28" t="n">
-        <v>2568.556609404823</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>2568.556609404823</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.364540028278</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249833</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.73405149787</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X28" t="n">
-        <v>3097.616270711153</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y28" t="n">
-        <v>2876.823691567623</v>
+        <v>700.0944266746544</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1881.708680670283</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C29" t="n">
-        <v>1512.746163729872</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D29" t="n">
-        <v>1154.480465123121</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E29" t="n">
-        <v>768.692212524877</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F29" t="n">
-        <v>357.7063077352695</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G29" t="n">
-        <v>357.7063077352695</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6473,40 +6475,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.542934265599</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W29" t="n">
-        <v>2641.774278995485</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.308520734405</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y29" t="n">
-        <v>2268.308520734405</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I30" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>321.0142000773578</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>321.0142000773578</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>174.1242525794475</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>174.1242525794475</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U31" t="n">
-        <v>631.7841389438281</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V31" t="n">
-        <v>377.0996507379413</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W31" t="n">
-        <v>87.68248070098065</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X31" t="n">
-        <v>87.68248070098065</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="Y31" t="n">
-        <v>87.68248070098065</v>
+        <v>471.1308394896936</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1311.909787855438</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C32" t="n">
-        <v>942.9472709150266</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D32" t="n">
-        <v>942.9472709150266</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E32" t="n">
-        <v>557.1590183167823</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F32" t="n">
-        <v>146.1731135271747</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296687</v>
@@ -6725,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.97538618064</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.50962791956</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y32" t="n">
-        <v>1698.50962791956</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6810,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6819,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.51211643218343</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="C34" t="n">
-        <v>66.51211643218343</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218343</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218343</v>
+        <v>255.567191300814</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218343</v>
+        <v>255.567191300814</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>87.86435467553295</v>
       </c>
       <c r="H34" t="n">
         <v>66.51211643218343</v>
@@ -6886,22 +6888,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>838.6033255730482</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U34" t="n">
-        <v>838.6033255730482</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V34" t="n">
-        <v>583.9188373671614</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W34" t="n">
-        <v>294.5016673302008</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X34" t="n">
-        <v>66.51211643218343</v>
+        <v>403.4802848832071</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.51211643218343</v>
+        <v>403.4802848832071</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1934.181533884357</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C35" t="n">
-        <v>1565.219016943946</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D35" t="n">
-        <v>1206.953318337195</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E35" t="n">
-        <v>821.1650657389509</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052369</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3084.386464185371</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3084.386464185371</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>3084.386464185371</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>3084.386464185371</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X35" t="n">
-        <v>2710.920705924291</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y35" t="n">
-        <v>2320.781373948479</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.3679798527295</v>
+        <v>700.0944266746549</v>
       </c>
       <c r="C37" t="n">
-        <v>511.4317969248226</v>
+        <v>700.0944266746549</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124869</v>
+        <v>549.9777872623191</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>402.064693679926</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>255.1747461820156</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>87.4719095567346</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218343</v>
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1844.338003964587</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C38" t="n">
-        <v>1475.375487024175</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D38" t="n">
-        <v>1117.109788417425</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E38" t="n">
-        <v>1117.109788417425</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F38" t="n">
-        <v>706.1238836278173</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G38" t="n">
-        <v>291.0514334728138</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7208,16 +7210,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2994.5429342656</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X38" t="n">
-        <v>2621.07717600452</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y38" t="n">
-        <v>2230.937844028709</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1702.09613355694</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>1527.643104275813</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>1378.708694614562</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>1219.471239609106</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>936.5735814686093</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>846.0716871064768</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>827.0643955080147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>920.7416649986321</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>1525.704024291645</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>2285.923269547495</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>2078.071769341962</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1870.311470577008</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218345</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218345</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218345</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218345</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218345</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218345</v>
+        <v>2654.620028137771</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218345</v>
+        <v>2508.402841355628</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218345</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J40" t="n">
-        <v>78.3348699696229</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>920.887005818185</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S40" t="n">
-        <v>920.887005818185</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T40" t="n">
-        <v>920.887005818185</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U40" t="n">
-        <v>920.887005818185</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="V40" t="n">
-        <v>920.887005818185</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="W40" t="n">
-        <v>696.9427113039706</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="X40" t="n">
-        <v>468.9531604059532</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.1605812624231</v>
+        <v>2822.322864763052</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2006.793820398076</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C41" t="n">
-        <v>1637.831303457665</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D41" t="n">
-        <v>1279.565604850914</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E41" t="n">
-        <v>893.77735225267</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F41" t="n">
-        <v>482.7914474630624</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7430,31 +7432,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2766.859418723278</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X41" t="n">
-        <v>2393.393660462198</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y41" t="n">
-        <v>2393.393660462198</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>530.2513404403937</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C43" t="n">
-        <v>361.3151575124868</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>752.0179558708677</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>530.2513404403937</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U43" t="n">
-        <v>530.2513404403937</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V43" t="n">
-        <v>530.2513404403937</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W43" t="n">
-        <v>530.2513404403937</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X43" t="n">
-        <v>530.2513404403937</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y43" t="n">
-        <v>530.2513404403937</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1285.591601078694</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C44" t="n">
-        <v>916.6290841382822</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D44" t="n">
-        <v>558.3633855315318</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>406.0926155839475</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329463</v>
@@ -7661,37 +7663,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U44" t="n">
-        <v>3119.628073993392</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V44" t="n">
-        <v>2788.565186649821</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W44" t="n">
-        <v>2435.796531379707</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X44" t="n">
-        <v>2062.330773118627</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y44" t="n">
-        <v>1672.191441142816</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.4482993600903</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C46" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D46" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T46" t="n">
-        <v>779.5499576029378</v>
+        <v>3103.839206178698</v>
       </c>
       <c r="U46" t="n">
-        <v>779.5499576029378</v>
+        <v>3015.332590466018</v>
       </c>
       <c r="V46" t="n">
-        <v>524.8654693970509</v>
+        <v>2760.648102260131</v>
       </c>
       <c r="W46" t="n">
-        <v>235.4482993600903</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="X46" t="n">
-        <v>235.4482993600903</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.4482993600903</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
   </sheetData>
@@ -22550,19 +22552,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>325.7488327651026</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>168.0688818921504</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>107.7439527351651</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22784,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>255.1805474109837</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22841,10 +22843,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>3.781416697045813</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22954,13 +22956,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>145.067147632919</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>101.8363156449105</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23002,7 +23004,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23024,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23072,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>303.9530049144603</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>188.6451035937365</v>
       </c>
     </row>
     <row r="9">
@@ -23176,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>72.66698746754813</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -23239,13 +23241,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>64.81814676751881</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>261.6282555399578</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -23318,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>39.91665348666243</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>13.2028020730516</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>218.7656321186407</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>168.0688818921489</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>97.95568926599836</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>30.61313731386747</v>
       </c>
       <c r="H16" t="n">
-        <v>126.9655577237063</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>126.491952119223</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,22 +23785,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>161.2723701802175</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23944,19 +23946,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>17.84763267144632</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>197.6259927259855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>162.6268089888802</v>
+        <v>222.7020862222423</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>85.25214655085804</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24181,16 +24183,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>204.7509947629279</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24215,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>97.95568926599873</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,10 +24265,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>222.7020862222421</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>41.33413282833521</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>198.59028865006</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>28.08821801648463</v>
+        <v>30.6131373138679</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>331.8898480104183</v>
       </c>
       <c r="H29" t="n">
-        <v>47.90244477019121</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>158.873319555828</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>38.21900012852937</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>373.634268302338</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>97.95568926599657</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25081,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>123.6162990534048</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25126,13 +25128,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>138.0881058334838</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25163,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>64.81119518318249</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>74.29856807823333</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>160.3027978282312</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>124.0048197210151</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25397,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H38" t="n">
-        <v>113.8907702900224</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25448,10 +25450,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>59.55223036870463</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>64.81814676751873</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>293.4129523202037</v>
+        <v>222.7020862222414</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25834,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>22.58866588359788</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -25849,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>94.15744254776803</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>231.1823078241533</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25919,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>301.4434764528023</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26074,10 +26076,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>79.62527154307455</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>198.5902886500598</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345493.0262371867</v>
+        <v>345493.0262371869</v>
       </c>
       <c r="C2" t="n">
         <v>345493.026237187</v>
       </c>
       <c r="D2" t="n">
-        <v>345493.0262371868</v>
+        <v>345493.0262371869</v>
       </c>
       <c r="E2" t="n">
         <v>345493.0262371866</v>
@@ -26332,28 +26334,28 @@
         <v>345493.0262371869</v>
       </c>
       <c r="I2" t="n">
-        <v>345493.0262371868</v>
+        <v>345493.026237187</v>
       </c>
       <c r="J2" t="n">
-        <v>345493.0262371868</v>
+        <v>345493.0262371869</v>
       </c>
       <c r="K2" t="n">
         <v>345493.0262371868</v>
       </c>
       <c r="L2" t="n">
+        <v>345493.0262371868</v>
+      </c>
+      <c r="M2" t="n">
         <v>345493.026237187</v>
-      </c>
-      <c r="M2" t="n">
-        <v>345493.0262371869</v>
       </c>
       <c r="N2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="O2" t="n">
-        <v>345493.0262371868</v>
+        <v>345493.0262371869</v>
       </c>
       <c r="P2" t="n">
-        <v>345493.0262371868</v>
+        <v>345493.0262371869</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26390,7 +26392,7 @@
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="D4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061227</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
         <v>584.646989006123</v>
@@ -26442,22 +26444,22 @@
         <v>584.646989006123</v>
       </c>
       <c r="K4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="O4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26479,22 +26481,22 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26503,13 +26505,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26522,43 +26524,43 @@
         <v>-1091770.307040805</v>
       </c>
       <c r="C6" t="n">
-        <v>236974.4386867876</v>
+        <v>236974.4386867875</v>
       </c>
       <c r="D6" t="n">
-        <v>236974.4386867872</v>
+        <v>236974.4386867875</v>
       </c>
       <c r="E6" t="n">
+        <v>270602.0386867871</v>
+      </c>
+      <c r="F6" t="n">
         <v>270602.0386867872</v>
       </c>
-      <c r="F6" t="n">
-        <v>270602.0386867878</v>
-      </c>
       <c r="G6" t="n">
-        <v>270602.0386867875</v>
+        <v>270602.0386867874</v>
       </c>
       <c r="H6" t="n">
-        <v>270602.0386867875</v>
+        <v>270602.0386867874</v>
       </c>
       <c r="I6" t="n">
+        <v>270602.0386867877</v>
+      </c>
+      <c r="J6" t="n">
+        <v>53070.83628951009</v>
+      </c>
+      <c r="K6" t="n">
+        <v>270602.0386867872</v>
+      </c>
+      <c r="L6" t="n">
         <v>270602.0386867874</v>
-      </c>
-      <c r="J6" t="n">
-        <v>53070.83628950997</v>
-      </c>
-      <c r="K6" t="n">
-        <v>270602.0386867874</v>
-      </c>
-      <c r="L6" t="n">
-        <v>270602.0386867875</v>
       </c>
       <c r="M6" t="n">
         <v>270602.0386867875</v>
       </c>
       <c r="N6" t="n">
+        <v>270602.0386867874</v>
+      </c>
+      <c r="O6" t="n">
         <v>270602.0386867875</v>
-      </c>
-      <c r="O6" t="n">
-        <v>270602.0386867874</v>
       </c>
       <c r="P6" t="n">
         <v>270602.0386867874</v>
@@ -26790,31 +26792,31 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="E4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="D4" t="n">
+      <c r="I4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="E4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022929</v>
@@ -26823,13 +26825,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33041,10 +33043,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33676,7 +33678,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781694</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
         <v>275.1987363563569</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33989,10 +33991,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34150,7 +34152,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781681</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563569</v>
@@ -34208,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34372,7 +34374,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34445,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36689,10 +36691,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597745</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K31" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L31" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M31" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N31" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O31" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P31" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37637,10 +37639,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38020,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
